--- a/Data/Exp 3 Column Experiment ColEx Data/ColEx_data_allreps_formatted.xlsx
+++ b/Data/Exp 3 Column Experiment ColEx Data/ColEx_data_allreps_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/Exp 3 Column Experiment ColEx Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5182FB1-5E0A-884B-AF69-C1F4F4C48D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1CD7B-C72A-8F4A-BF06-BEA3525213AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{C9395C9C-127F-244D-81F4-73791C73F272}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
   <si>
     <t>Treatment</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Initial</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>ASW</t>
@@ -484,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258AC6D1-C1CD-5D42-8F74-9D790AF79098}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -557,9 +554,6 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
         <v>13240</v>
       </c>
@@ -572,9 +566,6 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
       <c r="J2">
         <v>2938.9776398341942</v>
       </c>
@@ -602,7 +593,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -655,7 +646,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -708,7 +699,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -761,7 +752,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -814,7 +805,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -867,7 +858,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -920,7 +911,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -973,7 +964,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1026,7 +1017,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1079,7 +1070,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1132,7 +1123,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1185,7 +1176,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1238,7 +1229,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1291,7 +1282,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1344,7 +1335,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1397,7 +1388,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1450,7 +1441,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1503,7 +1494,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1556,7 +1547,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1609,7 +1600,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1662,7 +1653,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1715,7 +1706,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1768,7 +1759,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1821,7 +1812,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1874,7 +1865,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1927,7 +1918,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -1980,7 +1971,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2033,7 +2024,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2086,7 +2077,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2139,7 +2130,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2192,7 +2183,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -2245,7 +2236,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -2298,7 +2289,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2351,7 +2342,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -2404,7 +2395,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -2457,7 +2448,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -2510,7 +2501,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -2563,7 +2554,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -2616,7 +2607,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -2669,7 +2660,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -2722,7 +2713,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -2775,7 +2766,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -2828,7 +2819,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -2881,7 +2872,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -2934,7 +2925,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -2987,7 +2978,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -3040,7 +3031,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3093,7 +3084,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3146,7 +3137,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -3199,7 +3190,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -3252,7 +3243,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>11</v>
@@ -3305,7 +3296,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -3358,7 +3349,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -3411,7 +3402,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>11</v>
@@ -3464,7 +3455,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -3517,7 +3508,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -3570,7 +3561,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3623,7 +3614,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -3676,7 +3667,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -3729,7 +3720,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>12</v>
